--- a/excelTask3/Data/dataTable — копия.xlsx
+++ b/excelTask3/Data/dataTable — копия.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Товары"/>
@@ -230,6 +230,9 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -260,7 +263,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -281,10 +284,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -595,289 +595,289 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="20" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="22.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>375</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="10">
         <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>922</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>929</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>210</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>75.14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>404</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>120</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>517</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>150</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>963</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>853</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>232</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>372</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>415</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="10">
         <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>303</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <v>400</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>778</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>516</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>181</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="10">
         <v>500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>832</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="10">
         <v>105</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>855</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="10">
         <v>110</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>840</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="10">
         <v>150</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>104</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="10">
         <v>130</v>
       </c>
     </row>
@@ -893,183 +893,183 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="55.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="40.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="19" width="55.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="40.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="6">
         <v>287</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="6">
         <v>820</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="6">
         <v>748</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="6">
         <v>633</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="8">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="9">
         <v>666</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="8"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="8"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="8"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="8"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="8"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="8"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="8"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="8"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="8"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="9"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="9"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="9"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="9"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="9"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="9"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="9"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="9"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="9"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="9"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="8"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1083,20 +1083,20 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="13.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="13" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="14" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -1109,355 +1109,355 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>104</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>404</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>287</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>233</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>30</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>45000</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>105</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>303</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>287</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>234</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>50</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>45002</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>107</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>778</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>820</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>236</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>25</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>45060</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>108</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>181</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>633</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>237</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>22</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>45093</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>106</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>855</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>748</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>235</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>38</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>45036</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>110</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>929</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>748</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>238</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>27</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>45093</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>111</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>832</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>633</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>239</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>10</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>45099</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>109</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>210</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>633</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>237</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>14</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>44949</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>210</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>45338</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excelTask3/Data/dataTable — копия.xlsx
+++ b/excelTask3/Data/dataTable — копия.xlsx
@@ -1099,7 +1099,7 @@
     <col min="10" max="10" style="16" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="6">
         <v>104</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="6">
         <v>105</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="6">
         <v>107</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="6">
         <v>108</v>
       </c>
@@ -1219,7 +1219,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6">
         <v>106</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="6">
         <v>110</v>
       </c>
@@ -1267,7 +1267,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="6">
         <v>111</v>
       </c>
@@ -1291,7 +1291,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="6">
         <v>109</v>
       </c>
@@ -1315,7 +1315,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -1339,7 +1339,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1351,7 +1351,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1363,7 +1363,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1375,7 +1375,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1387,7 +1387,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1399,7 +1399,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1411,7 +1411,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1423,7 +1423,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1435,7 +1435,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1447,7 +1447,7 @@
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
